--- a/Covad/jean.xlsx
+++ b/Covad/jean.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="jean" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="273">
   <si>
     <t>NOME</t>
   </si>
@@ -833,22 +833,7 @@
     <t>Procedimento findo esta extinto./Cumprimento de sentença,classe originária execução fiscal.</t>
   </si>
   <si>
-    <t>+256</t>
-  </si>
-  <si>
-    <t>+257</t>
-  </si>
-  <si>
-    <t>IPATINGA</t>
-  </si>
-  <si>
-    <t>3 PRO Procedimento findo esta extinto.</t>
-  </si>
-  <si>
     <t>Cumprimento de sentença,classe originária Embargos a Execução.</t>
-  </si>
-  <si>
-    <t>1 PRO Procedimento findo esta extinto.</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1344,17 +1329,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1400,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1471,7 +1445,6 @@
     <xf numFmtId="49" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1517,17 +1490,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2793,7 +2756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2801,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,7 +9998,7 @@
       </c>
       <c r="I253" s="9"/>
       <c r="J253" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -10098,1572 +10061,303 @@
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E256" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F256" s="9">
-        <v>4</v>
-      </c>
-      <c r="G256" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H256" s="11">
-        <v>43726</v>
-      </c>
-      <c r="I256" s="9"/>
-      <c r="J256" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E257" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F257" s="9">
-        <v>1</v>
-      </c>
-      <c r="G257" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H257" s="11">
-        <v>43726</v>
-      </c>
-      <c r="I257" s="9"/>
-      <c r="J257" s="9"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" t="s">
-        <v>274</v>
-      </c>
-      <c r="E258" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F258" s="9">
-        <v>10</v>
-      </c>
-      <c r="G258" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H258" s="11">
-        <v>43726</v>
-      </c>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E259" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="F259" s="9">
-        <v>67</v>
-      </c>
-      <c r="G259" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H259" s="11">
-        <v>43726</v>
-      </c>
-      <c r="I259" s="9"/>
-      <c r="J259" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E260" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F260" s="9">
-        <v>69</v>
-      </c>
-      <c r="G260" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H260" s="11">
-        <v>43726</v>
-      </c>
-      <c r="I260" s="9"/>
-      <c r="J260" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="34"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="9"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="34"/>
-      <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="9"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="9"/>
-      <c r="J263" s="9"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="9"/>
-      <c r="J264" s="9"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="9"/>
-      <c r="J265" s="9"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="11"/>
-      <c r="I266" s="9"/>
-      <c r="J266" s="9"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="34"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="9"/>
-      <c r="J267" s="9"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="9"/>
-      <c r="J268" s="9"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="9"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="34"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="11"/>
-      <c r="I270" s="9"/>
-      <c r="J270" s="9"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="34"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
-      <c r="H271" s="11"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="34"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="9"/>
-      <c r="J272" s="9"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="34"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="11"/>
-      <c r="I273" s="9"/>
-      <c r="J273" s="9"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
-      <c r="E274" s="34"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="9"/>
-      <c r="J274" s="9"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9"/>
-      <c r="E275" s="34"/>
-      <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="9"/>
-      <c r="J275" s="9"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
-      <c r="E276" s="34"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="11"/>
-      <c r="I276" s="9"/>
-      <c r="J276" s="9"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="34"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="9"/>
-      <c r="J277" s="9"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
-      <c r="E278" s="34"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-      <c r="H278" s="11"/>
-      <c r="I278" s="9"/>
-      <c r="J278" s="9"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9"/>
-      <c r="E279" s="34"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="11"/>
-      <c r="I279" s="9"/>
-      <c r="J279" s="9"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-      <c r="H280" s="11"/>
-      <c r="I280" s="9"/>
-      <c r="J280" s="9"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-      <c r="H281" s="11"/>
-      <c r="I281" s="9"/>
-      <c r="J281" s="9"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9"/>
-      <c r="E282" s="34"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="9"/>
-      <c r="J282" s="9"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9"/>
-      <c r="E283" s="34"/>
-      <c r="F283" s="9"/>
-      <c r="G283" s="9"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="9"/>
-      <c r="J283" s="9"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
-      <c r="E284" s="34"/>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="9"/>
-      <c r="J284" s="9"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
-      <c r="E285" s="34"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="9"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="9"/>
-      <c r="J285" s="9"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
-      <c r="E286" s="34"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="9"/>
-      <c r="J286" s="9"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="34"/>
-      <c r="F287" s="9"/>
-      <c r="G287" s="9"/>
-      <c r="H287" s="11"/>
-      <c r="I287" s="9"/>
-      <c r="J287" s="9"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
-      <c r="E288" s="34"/>
-      <c r="F288" s="9"/>
-      <c r="G288" s="9"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="9"/>
-      <c r="J288" s="9"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="34"/>
-      <c r="F289" s="9"/>
-      <c r="G289" s="9"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="9"/>
-      <c r="J289" s="9"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="9"/>
-      <c r="G290" s="9"/>
-      <c r="H290" s="11"/>
-      <c r="I290" s="9"/>
-      <c r="J290" s="9"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="9"/>
-      <c r="G291" s="9"/>
-      <c r="H291" s="11"/>
-      <c r="I291" s="9"/>
-      <c r="J291" s="9"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="9"/>
-      <c r="G292" s="9"/>
-      <c r="H292" s="11"/>
-      <c r="I292" s="9"/>
-      <c r="J292" s="9"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="9"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="9"/>
-      <c r="G293" s="9"/>
-      <c r="H293" s="11"/>
-      <c r="I293" s="9"/>
-      <c r="J293" s="9"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="9"/>
-      <c r="G294" s="9"/>
-      <c r="H294" s="11"/>
-      <c r="I294" s="9"/>
-      <c r="J294" s="9"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="9"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="9"/>
-      <c r="J295" s="9"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="9"/>
-      <c r="G298" s="9"/>
-      <c r="H298" s="11"/>
-      <c r="I298" s="9"/>
-      <c r="J298" s="9"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
-      <c r="E299" s="10"/>
-      <c r="F299" s="9"/>
-      <c r="G299" s="9"/>
-      <c r="H299" s="11"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="9"/>
-      <c r="J300" s="9"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="9"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="9"/>
-      <c r="G302" s="9"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="9"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="9"/>
-      <c r="G303" s="9"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="9"/>
-      <c r="J303" s="9"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="9"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="9"/>
-      <c r="J304" s="9"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="9"/>
-      <c r="G305" s="9"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="9"/>
-      <c r="J305" s="9"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9"/>
-      <c r="H306" s="11"/>
-      <c r="I306" s="9"/>
-      <c r="J306" s="9"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="10"/>
-      <c r="F307" s="9"/>
-      <c r="G307" s="9"/>
-      <c r="H307" s="11"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="9"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="9"/>
-      <c r="G308" s="9"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="9"/>
-      <c r="J308" s="9"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A309" s="9"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="9"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="9"/>
-      <c r="G309" s="9"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="9"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="9"/>
-      <c r="E310" s="10"/>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="9"/>
-      <c r="J310" s="9"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="9"/>
-      <c r="E311" s="10"/>
-      <c r="F311" s="9"/>
-      <c r="G311" s="9"/>
-      <c r="H311" s="11"/>
-      <c r="I311" s="9"/>
-      <c r="J311" s="9"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312" s="9"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="9"/>
-      <c r="E312" s="10"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
-      <c r="H312" s="11"/>
-      <c r="I312" s="9"/>
-      <c r="J312" s="9"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="9"/>
-      <c r="E313" s="10"/>
-      <c r="F313" s="9"/>
-      <c r="G313" s="9"/>
-      <c r="H313" s="11"/>
-      <c r="I313" s="9"/>
-      <c r="J313" s="9"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="9"/>
-      <c r="G314" s="9"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="9"/>
-      <c r="J314" s="9"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="9"/>
-      <c r="H315" s="11"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="9"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="9"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="9"/>
-      <c r="G316" s="9"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="9"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="9"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="9"/>
-      <c r="G317" s="9"/>
-      <c r="H317" s="11"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="9"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="9"/>
-      <c r="E318" s="10"/>
-      <c r="F318" s="9"/>
-      <c r="G318" s="9"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="9"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9"/>
-      <c r="E319" s="10"/>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9"/>
-      <c r="H319" s="11"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="9"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="9"/>
-      <c r="E320" s="10"/>
-      <c r="F320" s="9"/>
-      <c r="G320" s="9"/>
-      <c r="H320" s="11"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="9"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A321" s="9"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="9"/>
-      <c r="E321" s="10"/>
-      <c r="F321" s="9"/>
-      <c r="G321" s="9"/>
-      <c r="H321" s="11"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="9"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" s="9"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
-      <c r="D322" s="9"/>
-      <c r="E322" s="10"/>
-      <c r="F322" s="9"/>
-      <c r="G322" s="9"/>
-      <c r="H322" s="11"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="9"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="9"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
-      <c r="D323" s="9"/>
-      <c r="E323" s="10"/>
-      <c r="F323" s="9"/>
-      <c r="G323" s="9"/>
-      <c r="H323" s="11"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="9"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
-      <c r="D324" s="9"/>
-      <c r="E324" s="10"/>
-      <c r="F324" s="9"/>
-      <c r="G324" s="9"/>
-      <c r="H324" s="11"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="9"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="9"/>
-      <c r="E325" s="10"/>
-      <c r="F325" s="9"/>
-      <c r="G325" s="9"/>
-      <c r="H325" s="11"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="9"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="9"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="9"/>
-      <c r="G326" s="9"/>
-      <c r="H326" s="11"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="9"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="9"/>
-      <c r="G327" s="9"/>
-      <c r="H327" s="11"/>
-      <c r="I327" s="9"/>
-      <c r="J327" s="9"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="9"/>
-      <c r="G328" s="9"/>
-      <c r="H328" s="11"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="9"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="9"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9"/>
-      <c r="H329" s="11"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="10"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9"/>
-      <c r="H330" s="11"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9"/>
-      <c r="E331" s="10"/>
-      <c r="F331" s="9"/>
-      <c r="G331" s="9"/>
-      <c r="H331" s="11"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="9"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="9"/>
-      <c r="G332" s="9"/>
-      <c r="H332" s="11"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="9"/>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" s="9"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="10"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="9"/>
-      <c r="H333" s="11"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="9"/>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="9"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="9"/>
-      <c r="G334" s="9"/>
-      <c r="H334" s="11"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="9"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="9"/>
-      <c r="E335" s="10"/>
-      <c r="F335" s="9"/>
-      <c r="G335" s="9"/>
-      <c r="H335" s="11"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="9"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="9"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="9"/>
-      <c r="G336" s="9"/>
-      <c r="H336" s="11"/>
-      <c r="I336" s="9"/>
-      <c r="J336" s="9"/>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" s="9"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="9"/>
-      <c r="E337" s="10"/>
-      <c r="F337" s="9"/>
-      <c r="G337" s="9"/>
-      <c r="H337" s="11"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="9"/>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
-      <c r="D338" s="9"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="9"/>
-      <c r="G338" s="9"/>
-      <c r="H338" s="11"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="9"/>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="9"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="9"/>
-      <c r="G339" s="9"/>
-      <c r="H339" s="11"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="9"/>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="9"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="9"/>
-      <c r="G340" s="9"/>
-      <c r="H340" s="11"/>
-      <c r="I340" s="9"/>
-      <c r="J340" s="9"/>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" s="9"/>
-      <c r="B341" s="9"/>
-      <c r="C341" s="9"/>
-      <c r="D341" s="9"/>
-      <c r="E341" s="10"/>
-      <c r="F341" s="9"/>
-      <c r="G341" s="9"/>
-      <c r="H341" s="11"/>
-      <c r="I341" s="9"/>
-      <c r="J341" s="9"/>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="9"/>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9"/>
-      <c r="D342" s="9"/>
-      <c r="E342" s="10"/>
-      <c r="F342" s="9"/>
-      <c r="G342" s="9"/>
-      <c r="H342" s="11"/>
-      <c r="I342" s="9"/>
-      <c r="J342" s="9"/>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="9"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9"/>
-      <c r="E343" s="10"/>
-      <c r="F343" s="9"/>
-      <c r="G343" s="9"/>
-      <c r="H343" s="11"/>
-      <c r="I343" s="9"/>
-      <c r="J343" s="9"/>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="9"/>
-      <c r="B344" s="9"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="9"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="9"/>
-      <c r="G344" s="9"/>
-      <c r="H344" s="11"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="9"/>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="9"/>
-      <c r="B345" s="9"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="9"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="9"/>
-      <c r="G345" s="9"/>
-      <c r="H345" s="11"/>
-      <c r="I345" s="9"/>
-      <c r="J345" s="9"/>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
-      <c r="B346" s="9"/>
-      <c r="C346" s="9"/>
-      <c r="D346" s="9"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="9"/>
-      <c r="G346" s="9"/>
-      <c r="H346" s="11"/>
-      <c r="I346" s="9"/>
-      <c r="J346" s="9"/>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="9"/>
-      <c r="B347" s="9"/>
-      <c r="C347" s="9"/>
-      <c r="D347" s="9"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="9"/>
-      <c r="G347" s="9"/>
-      <c r="H347" s="11"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="9"/>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="9"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="9"/>
-      <c r="G348" s="9"/>
-      <c r="H348" s="11"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="9"/>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" s="9"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="9"/>
-      <c r="G349" s="9"/>
-      <c r="H349" s="11"/>
-      <c r="I349" s="9"/>
-      <c r="J349" s="9"/>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" s="9"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9"/>
-      <c r="D350" s="9"/>
-      <c r="E350" s="10"/>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9"/>
-      <c r="H350" s="11"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" s="9"/>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="9"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="9"/>
-      <c r="G351" s="9"/>
-      <c r="H351" s="11"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="9"/>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="9"/>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9"/>
-      <c r="D352" s="9"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="9"/>
-      <c r="G352" s="9"/>
-      <c r="H352" s="11"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="9"/>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="9"/>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9"/>
-      <c r="D353" s="9"/>
-      <c r="E353" s="10"/>
-      <c r="F353" s="9"/>
-      <c r="G353" s="9"/>
-      <c r="H353" s="11"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="9"/>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="9"/>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9"/>
-      <c r="D354" s="9"/>
-      <c r="E354" s="10"/>
-      <c r="F354" s="9"/>
-      <c r="G354" s="9"/>
-      <c r="H354" s="11"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="9"/>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="9"/>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9"/>
-      <c r="D355" s="9"/>
-      <c r="E355" s="10"/>
-      <c r="F355" s="9"/>
-      <c r="G355" s="9"/>
-      <c r="H355" s="11"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="9"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="99" priority="119" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="119" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="duplicateValues" dxfId="98" priority="118" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="118" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="97" priority="117" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="117" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="96" priority="116" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="116" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="duplicateValues" dxfId="95" priority="115" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="115" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="duplicateValues" dxfId="94" priority="114" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="114" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="duplicateValues" dxfId="93" priority="110" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="110" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="duplicateValues" dxfId="92" priority="109" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="109" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="duplicateValues" dxfId="91" priority="108" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="108" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="90" priority="107" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="107" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="89" priority="106" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="106" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="duplicateValues" dxfId="88" priority="105" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="105" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="duplicateValues" dxfId="87" priority="104" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="104" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="duplicateValues" dxfId="86" priority="103" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="103" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="duplicateValues" dxfId="85" priority="102" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="102" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="duplicateValues" dxfId="84" priority="101" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="101" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="duplicateValues" dxfId="83" priority="100" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="100" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="duplicateValues" dxfId="82" priority="99" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="99" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="duplicateValues" dxfId="81" priority="98" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="98" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="duplicateValues" dxfId="80" priority="97" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="97" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="duplicateValues" dxfId="79" priority="96" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="96" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="duplicateValues" dxfId="78" priority="95" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="95" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="duplicateValues" dxfId="77" priority="94" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="94" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="duplicateValues" dxfId="76" priority="89" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="89" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="duplicateValues" dxfId="75" priority="88" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="88" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="duplicateValues" dxfId="74" priority="87" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="87" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="duplicateValues" dxfId="73" priority="85" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="85" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="duplicateValues" dxfId="72" priority="84" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="84" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="duplicateValues" dxfId="71" priority="83" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="83" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="duplicateValues" dxfId="70" priority="82" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="82" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="duplicateValues" dxfId="69" priority="81" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="81" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="duplicateValues" dxfId="68" priority="80" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="80" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="duplicateValues" dxfId="67" priority="79" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="79" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="duplicateValues" dxfId="66" priority="78" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="78" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="duplicateValues" dxfId="65" priority="77" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="77" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="duplicateValues" dxfId="64" priority="76" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="76" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141">
-    <cfRule type="duplicateValues" dxfId="63" priority="75" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="75" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142">
-    <cfRule type="duplicateValues" dxfId="62" priority="74" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="74" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="duplicateValues" dxfId="61" priority="73" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="73" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F174 D144 F146:F150 F160:F161 F155:F157 F181 F176:F178 F152:F153 F165:F170 F183:F190 F194:F200">
-    <cfRule type="duplicateValues" dxfId="60" priority="72" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="72" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145">
-    <cfRule type="duplicateValues" dxfId="59" priority="71" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="71" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="duplicateValues" dxfId="58" priority="70" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="70" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="duplicateValues" dxfId="57" priority="69" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="69" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="duplicateValues" dxfId="56" priority="68" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="68" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="duplicateValues" dxfId="55" priority="67" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="67" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="duplicateValues" dxfId="54" priority="66" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="66" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="duplicateValues" dxfId="53" priority="65" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="65" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152">
-    <cfRule type="duplicateValues" dxfId="52" priority="64" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="64" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="duplicateValues" dxfId="51" priority="63" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="63" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="duplicateValues" dxfId="50" priority="62" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="62" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="duplicateValues" dxfId="49" priority="61" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="61" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="duplicateValues" dxfId="48" priority="58" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="58" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171:D172">
-    <cfRule type="duplicateValues" dxfId="47" priority="57" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="57" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="duplicateValues" dxfId="46" priority="56" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="56" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174">
-    <cfRule type="duplicateValues" dxfId="45" priority="55" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="55" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="duplicateValues" dxfId="44" priority="54" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="54" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:D181">
-    <cfRule type="duplicateValues" dxfId="43" priority="53" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D182">
-    <cfRule type="duplicateValues" dxfId="42" priority="52" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="52" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184">
-    <cfRule type="duplicateValues" dxfId="41" priority="51" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="51" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183">
-    <cfRule type="duplicateValues" dxfId="40" priority="50" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185">
-    <cfRule type="duplicateValues" dxfId="39" priority="49" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="49" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193">
-    <cfRule type="duplicateValues" dxfId="38" priority="48" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="48" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D194">
-    <cfRule type="duplicateValues" dxfId="37" priority="46" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="46" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="duplicateValues" dxfId="36" priority="45" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="45" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D196">
-    <cfRule type="duplicateValues" dxfId="35" priority="44" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="44" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D197">
-    <cfRule type="duplicateValues" dxfId="34" priority="43" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D199">
-    <cfRule type="duplicateValues" dxfId="33" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="42" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D200">
-    <cfRule type="duplicateValues" dxfId="32" priority="40" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="40" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="duplicateValues" dxfId="31" priority="39" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="39" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D202">
-    <cfRule type="duplicateValues" dxfId="30" priority="38" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="38" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203">
-    <cfRule type="duplicateValues" dxfId="29" priority="37" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D204">
-    <cfRule type="duplicateValues" dxfId="28" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="35" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205">
-    <cfRule type="duplicateValues" dxfId="27" priority="34" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="34" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206">
-    <cfRule type="duplicateValues" dxfId="26" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="33" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207">
-    <cfRule type="duplicateValues" dxfId="25" priority="32" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D209">
-    <cfRule type="duplicateValues" dxfId="24" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D210">
-    <cfRule type="duplicateValues" dxfId="23" priority="30" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="30" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D211">
-    <cfRule type="duplicateValues" dxfId="22" priority="27" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="duplicateValues" dxfId="21" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D213">
-    <cfRule type="duplicateValues" dxfId="20" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D214">
-    <cfRule type="duplicateValues" dxfId="19" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D215">
-    <cfRule type="duplicateValues" dxfId="18" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D216">
-    <cfRule type="duplicateValues" dxfId="17" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E222">
-    <cfRule type="duplicateValues" dxfId="16" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D218">
-    <cfRule type="duplicateValues" dxfId="15" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D220:D221">
-    <cfRule type="duplicateValues" dxfId="14" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222">
-    <cfRule type="duplicateValues" dxfId="13" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D223">
-    <cfRule type="duplicateValues" dxfId="12" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224">
-    <cfRule type="duplicateValues" dxfId="11" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D225">
-    <cfRule type="duplicateValues" dxfId="10" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226">
-    <cfRule type="duplicateValues" dxfId="9" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="duplicateValues" dxfId="8" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D237">
-    <cfRule type="duplicateValues" dxfId="7" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D238">
-    <cfRule type="duplicateValues" dxfId="6" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247">
-    <cfRule type="duplicateValues" dxfId="5" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="duplicateValues" dxfId="4" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D250">
-    <cfRule type="duplicateValues" dxfId="3" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D246">
-    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D258">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
